--- a/biology/Botanique/Cerfeuil_lustré/Cerfeuil_lustré.xlsx
+++ b/biology/Botanique/Cerfeuil_lustré/Cerfeuil_lustré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cerfeuil_lustr%C3%A9</t>
+          <t>Cerfeuil_lustré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthriscus nitida
-Le Cerfeuil lustré ou Cerfeuil alpestre (Anthriscus nitida) est une espèce de plantes herbacées de la famille des Apiacées. On le trouve en Europe, de la France à l'Ukraine, des États baltes à la péninsule des Apennins. En Pologne, il est principalement présent dans les régions montagneuses, en particulier dans les Carpates et les Sudètes[1],[2].
+Le Cerfeuil lustré ou Cerfeuil alpestre (Anthriscus nitida) est une espèce de plantes herbacées de la famille des Apiacées. On le trouve en Europe, de la France à l'Ukraine, des États baltes à la péninsule des Apennins. En Pologne, il est principalement présent dans les régions montagneuses, en particulier dans les Carpates et les Sudètes,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cerfeuil_lustr%C3%A9</t>
+          <t>Cerfeuil_lustré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tige est moulée, rainurée, froissée, rugueuse et nue voire poilue au sommet. Elle se termine par une inflorescence de canopée qui atteint une hauteur de 40 à 150 cm.
 Les feuilles sont vertes, légèrement brillantes, complexes, double ou à plusieurs reprises plumeux, avec des apex aiguisés et pointus, le long des nerfs et dans la partie inférieure parcourues de poils courts. Les sections de la feuille sont distinctement séparées et profondément dentelées.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cerfeuil_lustr%C3%A9</t>
+          <t>Cerfeuil_lustré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Détails morphologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cerfeuil_lustr%C3%A9</t>
+          <t>Cerfeuil_lustré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Biologie et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une vivace, autotrophe, hémicryptophyte - les bourgeons hivernants sont situés au niveau du sol. Elle fleurit dans la période de mai à juin.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cerfeuil_lustr%C3%A9</t>
+          <t>Cerfeuil_lustré</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Caractéristiques photochimiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsqu'elle est frottée, la plante dégage une odeur aromatique. Elle contient de l'huile essentielle (riche en méthylchavicol, anéthole, dimères d'anéthol à action œstrogénique), coumarines, polyacétylènes, phytostérol, triterpènes. Les graines contiennent des coumarines photosensibilisantes et de l'huile essentielle diurétique.
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cerfeuil_lustr%C3%A9</t>
+          <t>Cerfeuil_lustré</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cerfeuil lustré pousse dans les plantes herbacées, les fourrés, les forêts humides, dans les prairies de la ceinture de montagnes et de hauts plateaux, en lisière de forêt, dans les fossés et sur les endroits rudéraux. C'est une plante poussant sur des sols neutres, riches et très humides pour des positions semi-ombragées dans des conditions climatiques modérément fraîches. Il préfère les gravats rocheux, les éboulis, le gravier, le sable, les sols sableux et les pistes poussiéreuses.
 </t>
@@ -652,7 +674,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cerfeuil_lustr%C3%A9</t>
+          <t>Cerfeuil_lustré</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,9 +692,11 @@
           <t>Phytosociologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la classification des communautés végétales, l'espèce se trouve communément associée à l'espèce  Adenostylion alliariae et forme des communautés de haute montagne d'herbes et de fourrés de feuillus souvent associées à un écoulement soutenu de l'eau[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la classification des communautés végétales, l'espèce se trouve communément associée à l'espèce  Adenostylion alliariae et forme des communautés de haute montagne d'herbes et de fourrés de feuillus souvent associées à un écoulement soutenu de l'eau.
 </t>
         </is>
       </c>
